--- a/results analysis.xlsx
+++ b/results analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E54DD4B-6203-4083-A209-9ABAB6AE1FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4030CE-330A-4F41-A200-40845644160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5520" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7751" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7753" uniqueCount="1583">
   <si>
     <t>A</t>
   </si>
@@ -4832,15 +4832,18 @@
     <t>com.marsor.lottery-47</t>
   </si>
   <si>
-    <t>com.jawfin.sol3d-307</t>
+    <t>org.sensortracker.sensor_zh-487</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.rjfittime.app-106</t>
+    <t>确认是field only</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>au.com.tapstyle-344</t>
+    <t>Surface.lockCanvas()--mLockedObject != 0,--nativeLockCanvas()</t>
+  </si>
+  <si>
+    <t>if (mNativeObject == 0)  mNativeObject 在内部类中被更改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4848,7 +4851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4886,6 +4889,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4907,7 +4917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4931,11 +4941,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4943,6 +4964,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5023,6 +5084,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5432,10 +5553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA95CB9-101E-4860-BFF0-6371DBD16D96}">
-  <dimension ref="A1:N508"/>
+  <dimension ref="A1:O508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="B442" sqref="B442"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="N416" sqref="N416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5446,7 +5567,7 @@
     <col min="4" max="4" width="16.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="4.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" style="3" customWidth="1"/>
@@ -13289,89 +13410,89 @@
       <c r="M186" s="6"/>
       <c r="N186" s="3"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" t="s">
+    <row r="187" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G187" s="3">
+      <c r="E187" s="11">
+        <v>1</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G187" s="9">
         <v>21</v>
       </c>
-      <c r="H187" s="6">
-        <v>1</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J187" s="3">
+      <c r="H187" s="8">
+        <v>1</v>
+      </c>
+      <c r="I187" s="10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J187" s="9">
         <v>4</v>
       </c>
-      <c r="K187" s="1">
+      <c r="K187" s="10">
         <f>IF(E187&lt;H187,-1,IF(E187&gt;H187,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L187" s="1">
+      <c r="L187" s="10">
         <f>IF(G187&gt;J187,1,IF(G187&lt;J187,-1,0))</f>
         <v>1</v>
       </c>
-      <c r="M187" s="6"/>
-      <c r="N187" s="3"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="M187" s="8"/>
+      <c r="N187" s="9"/>
+    </row>
+    <row r="188" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="D188" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G188" s="3">
+      <c r="E188" s="11">
+        <v>1</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G188" s="9">
         <v>13</v>
       </c>
-      <c r="H188" s="6">
-        <v>1</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J188" s="3">
+      <c r="H188" s="8">
+        <v>1</v>
+      </c>
+      <c r="I188" s="10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J188" s="9">
         <v>4</v>
       </c>
-      <c r="K188" s="1">
+      <c r="K188" s="10">
         <f>IF(E188&lt;H188,-1,IF(E188&gt;H188,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L188" s="1">
+      <c r="L188" s="10">
         <f>IF(G188&gt;J188,1,IF(G188&lt;J188,-1,0))</f>
         <v>1</v>
       </c>
-      <c r="M188" s="6"/>
-      <c r="N188" s="3"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="9"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
@@ -22229,93 +22350,93 @@
       </c>
       <c r="N398" s="3"/>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>0</v>
-      </c>
-      <c r="B399" t="s">
+    <row r="399" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B399" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="D399" s="6" t="s">
+      <c r="D399" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="11">
         <v>2</v>
       </c>
-      <c r="F399" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G399" s="3">
+      <c r="F399" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G399" s="9">
         <v>2</v>
       </c>
-      <c r="H399" s="6">
+      <c r="H399" s="8">
         <v>2</v>
       </c>
-      <c r="I399" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J399" s="3">
+      <c r="I399" s="10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J399" s="9">
         <v>2</v>
       </c>
-      <c r="K399" s="1">
+      <c r="K399" s="10">
         <f>IF(E399&lt;H399,-1,IF(E399&gt;H399,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L399" s="1">
+      <c r="L399" s="10">
         <f>IF(G399&gt;J399,1,IF(G399&lt;J399,-1,0))</f>
         <v>0</v>
       </c>
-      <c r="M399" s="6" t="s">
+      <c r="M399" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="N399" s="3"/>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>0</v>
-      </c>
-      <c r="B400" t="s">
+      <c r="N399" s="9"/>
+    </row>
+    <row r="400" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B400" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="C400" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D400" s="6" t="s">
+      <c r="C400" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D400" s="8" t="s">
         <v>1573</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="11">
         <v>2</v>
       </c>
-      <c r="F400" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G400" s="3">
+      <c r="F400" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G400" s="9">
         <v>2</v>
       </c>
-      <c r="H400" s="6">
-        <v>1</v>
-      </c>
-      <c r="I400" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J400" s="3">
+      <c r="H400" s="8">
+        <v>1</v>
+      </c>
+      <c r="I400" s="10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J400" s="9">
         <v>2</v>
       </c>
-      <c r="K400" s="1">
+      <c r="K400" s="10">
         <f>IF(E400&lt;H400,-1,IF(E400&gt;H400,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L400" s="1">
+      <c r="L400" s="10">
         <f>IF(G400&gt;J400,1,IF(G400&lt;J400,-1,0))</f>
         <v>0</v>
       </c>
-      <c r="M400" s="6"/>
-      <c r="N400" s="3"/>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M400" s="8"/>
+      <c r="N400" s="9"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -22357,7 +22478,7 @@
       <c r="M401" s="6"/>
       <c r="N401" s="3"/>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>0</v>
       </c>
@@ -22401,7 +22522,7 @@
       </c>
       <c r="N402" s="3"/>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>0</v>
       </c>
@@ -22445,7 +22566,7 @@
       </c>
       <c r="N403" s="3"/>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>0</v>
       </c>
@@ -22489,7 +22610,7 @@
       </c>
       <c r="N404" s="3"/>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -22533,7 +22654,7 @@
       </c>
       <c r="N405" s="3"/>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>0</v>
       </c>
@@ -22577,7 +22698,7 @@
       </c>
       <c r="N406" s="3"/>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>0</v>
       </c>
@@ -22621,7 +22742,7 @@
       </c>
       <c r="N407" s="3"/>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -22665,7 +22786,7 @@
       </c>
       <c r="N408" s="3"/>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -22709,7 +22830,7 @@
       </c>
       <c r="N409" s="3"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -22753,7 +22874,7 @@
       </c>
       <c r="N410" s="3"/>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -22797,7 +22918,7 @@
       </c>
       <c r="N411" s="3"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -22841,7 +22962,7 @@
       </c>
       <c r="N412" s="3"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -22885,7 +23006,7 @@
       </c>
       <c r="N413" s="3"/>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -22929,7 +23050,7 @@
       </c>
       <c r="N414" s="3"/>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -22973,12 +23094,12 @@
       </c>
       <c r="N415" s="3"/>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>0</v>
       </c>
       <c r="B416" t="s">
-        <v>796</v>
+        <v>1579</v>
       </c>
       <c r="C416" t="s">
         <v>1456</v>
@@ -23013,7 +23134,13 @@
         <v>1</v>
       </c>
       <c r="M416" s="6" t="s">
-        <v>1565</v>
+        <v>1580</v>
+      </c>
+      <c r="N416" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O416" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
@@ -26501,39 +26628,39 @@
         <v>873</v>
       </c>
       <c r="B503" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="C503" t="s">
-        <v>1440</v>
+        <v>1459</v>
       </c>
       <c r="D503" s="6" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G503" s="3">
+        <v>1</v>
+      </c>
+      <c r="H503" s="6">
+        <v>1</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J503" s="3">
         <v>2</v>
-      </c>
-      <c r="F503" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G503" s="3">
-        <v>4</v>
-      </c>
-      <c r="H503" s="6">
-        <v>999</v>
-      </c>
-      <c r="I503" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J503" s="3">
-        <v>4</v>
       </c>
       <c r="K503" s="1">
         <f>IF(E503&lt;H503,1,IF(E503&gt;H503,-1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L503" s="1">
         <f>IF(G503&lt;J503,1,IF(G503&gt;J503,-1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M503" s="6"/>
     </row>
@@ -26542,22 +26669,22 @@
         <v>873</v>
       </c>
       <c r="B504" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C504" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E504">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F504" t="s">
         <v>1545</v>
       </c>
       <c r="G504" s="3">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="H504" s="6">
         <v>999</v>
@@ -26566,7 +26693,7 @@
         <v>1545</v>
       </c>
       <c r="J504" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K504" s="1">
         <f>IF(E504&lt;H504,1,IF(E504&gt;H504,-1,0))</f>
@@ -26583,23 +26710,23 @@
         <v>873</v>
       </c>
       <c r="B505" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C505" t="s">
-        <v>1459</v>
+        <v>1468</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G505" s="3">
         <v>2</v>
       </c>
-      <c r="F505" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G505" s="3">
-        <v>42</v>
-      </c>
       <c r="H505" s="6">
         <v>1</v>
       </c>
@@ -26607,11 +26734,11 @@
         <v>1545</v>
       </c>
       <c r="J505" s="3">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="K505" s="1">
         <f>IF(E505&lt;H505,1,IF(E505&gt;H505,-1,0))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L505" s="1">
         <f>IF(G505&lt;J505,1,IF(G505&gt;J505,-1,0))</f>
@@ -26624,39 +26751,39 @@
         <v>873</v>
       </c>
       <c r="B506" t="s">
-        <v>1581</v>
+        <v>886</v>
       </c>
       <c r="C506" t="s">
-        <v>1459</v>
+        <v>1440</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E506">
+        <v>2</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G506" s="3">
+        <v>4</v>
+      </c>
+      <c r="H506" s="6">
         <v>999</v>
       </c>
-      <c r="F506" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G506" s="3">
-        <v>1</v>
-      </c>
-      <c r="H506" s="6">
-        <v>1</v>
-      </c>
       <c r="I506" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="J506" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K506" s="1">
         <f>IF(E506&lt;H506,1,IF(E506&gt;H506,-1,0))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L506" s="1">
         <f>IF(G506&lt;J506,1,IF(G506&gt;J506,-1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M506" s="6"/>
     </row>
@@ -26665,22 +26792,22 @@
         <v>873</v>
       </c>
       <c r="B507" t="s">
-        <v>1579</v>
+        <v>896</v>
       </c>
       <c r="C507" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="E507">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="F507" t="s">
         <v>1545</v>
       </c>
       <c r="G507" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H507" s="6">
         <v>999</v>
@@ -26689,15 +26816,15 @@
         <v>1545</v>
       </c>
       <c r="J507" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K507" s="1">
         <f>IF(E507&lt;H507,1,IF(E507&gt;H507,-1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L507" s="1">
         <f>IF(G507&lt;J507,1,IF(G507&gt;J507,-1,0))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M507" s="6"/>
     </row>
@@ -26706,22 +26833,22 @@
         <v>873</v>
       </c>
       <c r="B508" t="s">
-        <v>1580</v>
+        <v>908</v>
       </c>
       <c r="C508" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="D508" s="6" t="s">
         <v>1573</v>
       </c>
       <c r="E508">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="F508" t="s">
         <v>1545</v>
       </c>
       <c r="G508" s="3">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H508" s="6">
         <v>1</v>
@@ -26730,7 +26857,7 @@
         <v>1545</v>
       </c>
       <c r="J508" s="3">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="K508" s="1">
         <f>IF(E508&lt;H508,1,IF(E508&gt;H508,-1,0))</f>
@@ -26747,19 +26874,8 @@
     <sortCondition ref="E469:E508"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L415">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M201 M44">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26770,67 +26886,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K415">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="K1:L508">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K416:L468">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K469:L508">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K469:L508">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K469:L508">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26842,8 +26903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O418"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -43668,13 +43729,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1:L415">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43691,21 +43752,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K415 K417:K1048576">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K416:L416">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47989,13 +48050,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L53:L1048576 L1:M51">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49699,13 +49760,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L412">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results analysis.xlsx
+++ b/results analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A4545D-7838-429F-B7B3-6D788AB60D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC394C-C5E9-4D3F-9291-5FFEEA3A295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27453,7 +27453,7 @@
   <dimension ref="A1:O418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I413" sqref="I413"/>
+      <selection activeCell="I415" sqref="I415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/results analysis.xlsx
+++ b/results analysis.xlsx
@@ -50591,7 +50591,7 @@
   <dimension ref="A1:L588"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B512" sqref="B512"/>
+      <selection activeCell="Q507" sqref="Q507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/results analysis.xlsx
+++ b/results analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All-v10" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13011" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13012" uniqueCount="1199">
   <si>
     <t>A</t>
   </si>
@@ -3683,10 +3683,6 @@
     <t>cgeo.geocaching-23234767</t>
   </si>
   <si>
-    <t>&lt;android.content.ContextWrapper: android.content.Intent registerReceiver(android.content.BroadcastReceiver,android.content.IntentFilter)&gt; -&gt; &lt;android.app.ContextImpl: android.content.Intent registerReceiver(android.content.BroadcastReceiver,android.content.IntentFilter)&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParaAndField</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3696,6 +3692,18 @@
   </si>
   <si>
     <t>motivating example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.database.sqlite.SQLiteProgram.bindString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;android.content.ContextWrapper: android.content.Intent registerReceiver(android.content.BroadcastReceiver,android.content.IntentFilter)&gt; -&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;android.app.ContextImpl: android.content.Intent registerReceiver(android.content.BroadcastReceiver,android.content.IntentFilter)&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5870,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A399" sqref="A399:XFD399"/>
+    <sheetView topLeftCell="A462" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C495" sqref="C495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -73375,10 +73383,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -73388,8 +73396,8 @@
     <col min="4" max="4" width="30.21875" customWidth="1"/>
     <col min="6" max="6" width="4.77734375" customWidth="1"/>
     <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="8" max="8" width="99.33203125" customWidth="1"/>
-    <col min="9" max="9" width="101" customWidth="1"/>
+    <col min="8" max="8" width="58.109375" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -74511,7 +74519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -74534,7 +74542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -74557,7 +74565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -74580,7 +74588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -74603,7 +74611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -74626,7 +74634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -74649,7 +74657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -74672,7 +74680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -74695,7 +74703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -74703,7 +74711,7 @@
         <v>1138</v>
       </c>
       <c r="C57" t="s">
-        <v>1139</v>
+        <v>1196</v>
       </c>
       <c r="D57" t="s">
         <v>1069</v>
@@ -74718,7 +74726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -74741,7 +74749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1065</v>
       </c>
@@ -74764,7 +74772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -74787,7 +74795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -74795,10 +74803,10 @@
         <v>1118</v>
       </c>
       <c r="C62" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D62" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -74810,10 +74818,13 @@
         <v>6</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -74836,7 +74847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -74882,7 +74893,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
